--- a/data/case1/5/Q1_13.xlsx
+++ b/data/case1/5/Q1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.13653752999927349</v>
+        <v>0.11928112952215741</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999452564623</v>
+        <v>-0.0059999999401334492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999518212093</v>
+        <v>-0.0039999999517625895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999113429254</v>
+        <v>-0.0079999999096003194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999506378217</v>
+        <v>-0.0029999999562040358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999946123765</v>
+        <v>-0.0019999999595974316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998733513173</v>
+        <v>-0.0099999998807542845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998703439452</v>
+        <v>-0.0099999998812556612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999386177691</v>
+        <v>-0.0019999999621385101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999359789911</v>
+        <v>-0.0019999999648252498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999268381927</v>
+        <v>-0.0029999999551089118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.013132551620875788</v>
+        <v>-0.003499999950824062</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999158404904</v>
+        <v>-0.0034999999570457518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998740545308</v>
+        <v>0.024160878916408279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999993546173727</v>
+        <v>-0.00099999998448119243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999255677636</v>
+        <v>-0.001999999975369704</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999240196686</v>
+        <v>-0.0019999999772393195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999058109026</v>
+        <v>0.009920030712113892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0067659659561516428</v>
+        <v>-0.0039999999596487257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999635842443</v>
+        <v>-0.0039999999564805933</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.013750115299631993</v>
+        <v>-0.0039999999559974242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999636703976</v>
+        <v>-0.0039999999556137311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999398639972</v>
+        <v>-0.0049999999387413396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999800082158</v>
+        <v>-0.019999999784807265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999797294166</v>
+        <v>-0.019999999781821209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999404666795</v>
+        <v>-0.0024999999537982376</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999388968241</v>
+        <v>-0.002499999952660481</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.001999999936162844</v>
+        <v>-0.001999999952575493</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998867409374</v>
+        <v>-0.0069999999002066104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999412567728</v>
+        <v>-0.059999999378605562</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998901657534</v>
+        <v>-0.0069999999080092579</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999865270226</v>
+        <v>-0.0099999998814102042</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.050976927060203181</v>
+        <v>0.065483840255774695</v>
       </c>
     </row>
   </sheetData>
